--- a/extras/sample-form/Encryption field plug-in sample form.xlsx
+++ b/extras/sample-form/Encryption field plug-in sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.s.haberman/Documents/SurveyCTO code/Field plug-ins by Max/In progress/encrypt/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C1A10-3F0E-4F4F-A7A1-1C93E44C7012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C137925-860F-3F46-9765-D15EED89F57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="403">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2606,6 +2606,12 @@
 0=${respondent_name},
 1=${age},
 2=${marital})</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>This form demonstrates the "encrypt" field plug-in. To learn more, check out the &lt;a href="https://github.com/surveycto/encrypt/blob/main/README.md" target="_blank"&gt;readme&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -4870,13 +4876,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5065,151 +5071,162 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>390</v>
+        <v>402</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="9" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>375</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="K20" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5217,10 +5234,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5228,20 +5245,31 @@
         <v>120</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5562,7 +5590,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2403201337</v>
+        <v>2403281900</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>362</v>
